--- a/data/trans_orig/P64E-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14054</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8103</v>
+        <v>7844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22917</v>
+        <v>23193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03996286932382788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02304104854004789</v>
+        <v>0.02230460388694567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06516521870255987</v>
+        <v>0.06594830850718711</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>7639</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3730</v>
+        <v>3810</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14973</v>
+        <v>14299</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03517844228636227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01717551432839428</v>
+        <v>0.017546629550673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06895352706561148</v>
+        <v>0.06585192303711573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>21693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14426</v>
+        <v>14256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31700</v>
+        <v>32480</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03813646284685496</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02536042026072843</v>
+        <v>0.02506123336238862</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05572917848096325</v>
+        <v>0.05709929272018851</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>17328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10627</v>
+        <v>10134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27486</v>
+        <v>26508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04927261334290866</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03021620768037887</v>
+        <v>0.02881702932409641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07815655613802837</v>
+        <v>0.07537567165534595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>6284</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2000</v>
+        <v>2270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12191</v>
+        <v>13364</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02893739705172035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009212121211218581</v>
+        <v>0.01045268280243166</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05614299452269502</v>
+        <v>0.06154383973573176</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -857,19 +857,19 @@
         <v>23612</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15838</v>
+        <v>15949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35081</v>
+        <v>34975</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04150985085242966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02784356276718897</v>
+        <v>0.02803830518672169</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06167172066945364</v>
+        <v>0.06148583982841541</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>19069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11791</v>
+        <v>12316</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30352</v>
+        <v>30749</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05422245117283563</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03352663914281564</v>
+        <v>0.03502085711144171</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08630486247317247</v>
+        <v>0.08743262483239785</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,19 +907,19 @@
         <v>4631</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9586</v>
+        <v>10386</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02132853427206539</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008024204728808618</v>
+        <v>0.008033887538441409</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04414755306103647</v>
+        <v>0.0478284602510647</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -928,19 +928,19 @@
         <v>23700</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14657</v>
+        <v>15021</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34720</v>
+        <v>35415</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04166553214990494</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02576705208835485</v>
+        <v>0.02640610446035108</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06103825332282739</v>
+        <v>0.0622591719717781</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>90095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73528</v>
+        <v>75399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106081</v>
+        <v>107913</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2561818682550006</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2090759115792209</v>
+        <v>0.2143956103945959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3016389661069483</v>
+        <v>0.3068467478424874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -978,19 +978,19 @@
         <v>25395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17456</v>
+        <v>17049</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37156</v>
+        <v>36574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.116951640264078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08038986217688417</v>
+        <v>0.07851364211097328</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1711141487610687</v>
+        <v>0.168432432486538</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -999,19 +999,19 @@
         <v>115490</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96777</v>
+        <v>97426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138099</v>
+        <v>134809</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2030321414012414</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1701339804703635</v>
+        <v>0.1712754453232288</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.242779097699928</v>
+        <v>0.2369942908084731</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>211136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191493</v>
+        <v>191872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>230222</v>
+        <v>229816</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6003601979054272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5445037620374453</v>
+        <v>0.5455820742365051</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6546280943474008</v>
+        <v>0.6534738889975038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>167</v>
@@ -1049,19 +1049,19 @@
         <v>173195</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159101</v>
+        <v>160427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>183022</v>
+        <v>184281</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.797603986125774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7326981652992627</v>
+        <v>0.7388069238871676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8428617980817975</v>
+        <v>0.8486570073484151</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>369</v>
@@ -1070,19 +1070,19 @@
         <v>384331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>362548</v>
+        <v>361978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>406614</v>
+        <v>406637</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6756560127495691</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6373609180895137</v>
+        <v>0.6363585108609497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7148293604093776</v>
+        <v>0.71486937825838</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>3037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8287</v>
+        <v>7985</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01138577840095486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003693109381033249</v>
+        <v>0.003597649682074522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03107020679626767</v>
+        <v>0.02993589707394161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         <v>3037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8199</v>
+        <v>9084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006114570587417162</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001954460490338467</v>
+        <v>0.001964274670978719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01650773864204027</v>
+        <v>0.01828954211972339</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>2878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8798</v>
+        <v>7318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01079087178115645</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003216121344735319</v>
+        <v>0.003276505754555407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03298323594174714</v>
+        <v>0.02743566665736835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7013</v>
+        <v>7099</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008694925425990509</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03050056685898741</v>
+        <v>0.03087380170859344</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1279,19 +1279,19 @@
         <v>4878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1860</v>
+        <v>1774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10370</v>
+        <v>10550</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009820523649035771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003744876270944128</v>
+        <v>0.003571888817573</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0208795610182867</v>
+        <v>0.0212422157141054</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>5679</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2674</v>
+        <v>1958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11630</v>
+        <v>11464</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02129294667189933</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01002571559074045</v>
+        <v>0.00734225961228928</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04360295696656702</v>
+        <v>0.04297896424459565</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7296</v>
+        <v>7114</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008951240039520643</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03172992056526331</v>
+        <v>0.03094029839552918</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1350,19 +1350,19 @@
         <v>7738</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3611</v>
+        <v>3658</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13849</v>
+        <v>14083</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01557917830736409</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007270513259292328</v>
+        <v>0.007365254213815312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02788296098101037</v>
+        <v>0.02835431346234267</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>14804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7986</v>
+        <v>8172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23880</v>
+        <v>25403</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05550103964319972</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02994105590812679</v>
+        <v>0.03063771128484742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08952857441327101</v>
+        <v>0.09523854935633203</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1400,19 +1400,19 @@
         <v>17211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9789</v>
+        <v>9441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26760</v>
+        <v>26453</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07484927120827951</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04257083700977907</v>
+        <v>0.0410592569456612</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1163758962964538</v>
+        <v>0.1150444074109176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1421,19 +1421,19 @@
         <v>32015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21682</v>
+        <v>21582</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45390</v>
+        <v>44031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06445857823322113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0436540419386116</v>
+        <v>0.0434532187480597</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09138795088546982</v>
+        <v>0.08865128196119408</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>240332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>228567</v>
+        <v>229228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248552</v>
+        <v>249240</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9010293635027896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8569244426206952</v>
+        <v>0.859401009891527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9318500385380241</v>
+        <v>0.9344274527366921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>207</v>
@@ -1471,19 +1471,19 @@
         <v>208673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198016</v>
+        <v>198918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216568</v>
+        <v>216651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9075045633262093</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8611598915471045</v>
+        <v>0.8650824718262622</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9418398738553282</v>
+        <v>0.9422019049145269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>433</v>
@@ -1492,19 +1492,19 @@
         <v>449004</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>432921</v>
+        <v>434458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>460773</v>
+        <v>460687</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9040271492229619</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8716461506335756</v>
+        <v>0.874740738630289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9277227142222633</v>
+        <v>0.9275502109300618</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>10590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4932</v>
+        <v>4942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19851</v>
+        <v>20512</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02800273779043664</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01304068233436866</v>
+        <v>0.01306804339481374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05249252494887095</v>
+        <v>0.05423949396456838</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1630,19 +1630,19 @@
         <v>10590</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4732</v>
+        <v>5411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20002</v>
+        <v>19642</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02439458743939645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01089965740745177</v>
+        <v>0.01246562757821195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04607543351692554</v>
+        <v>0.04524696502987013</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>9458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4617</v>
+        <v>4589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17673</v>
+        <v>18292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02500926451030332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01220990374760427</v>
+        <v>0.01213412373867475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04673278880692176</v>
+        <v>0.04836991789902853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6655</v>
+        <v>7482</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03731108388065608</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.118972025864919</v>
+        <v>0.1337643644778871</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1701,19 +1701,19 @@
         <v>11545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5912</v>
+        <v>5803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22228</v>
+        <v>20495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02659435287601055</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01361932002402431</v>
+        <v>0.01336718482155298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05120472779118988</v>
+        <v>0.04721214593495348</v>
       </c>
     </row>
     <row r="18">
@@ -1730,19 +1730,19 @@
         <v>16845</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10112</v>
+        <v>9575</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26793</v>
+        <v>25826</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04454407766845361</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02673952618489188</v>
+        <v>0.02531802341712728</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07084855571344907</v>
+        <v>0.06829039891943724</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5370</v>
+        <v>5051</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01894936816365604</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09599985074565084</v>
+        <v>0.09031014995617356</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1772,19 +1772,19 @@
         <v>17905</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11266</v>
+        <v>11238</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28101</v>
+        <v>29021</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04124620155449572</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02595147319678871</v>
+        <v>0.02588806689516319</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06473243622896692</v>
+        <v>0.06685299564465176</v>
       </c>
     </row>
     <row r="19">
@@ -1801,19 +1801,19 @@
         <v>99024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81752</v>
+        <v>83205</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>116503</v>
+        <v>117085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2618469300375205</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2161755405114392</v>
+        <v>0.2200173627428832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3080665244919696</v>
+        <v>0.3096055749541548</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1822,19 +1822,19 @@
         <v>17614</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10662</v>
+        <v>10878</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25807</v>
+        <v>25660</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3148960711299401</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.190612951983439</v>
+        <v>0.1944828171143176</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4613765957334418</v>
+        <v>0.4587468330693797</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -1843,19 +1843,19 @@
         <v>116637</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96417</v>
+        <v>99360</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135395</v>
+        <v>134491</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2686823072955386</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2221026912602954</v>
+        <v>0.2288819765563356</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3118923395446241</v>
+        <v>0.3098093197736183</v>
       </c>
     </row>
     <row r="20">
@@ -1872,19 +1872,19 @@
         <v>242257</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223447</v>
+        <v>221991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260337</v>
+        <v>259077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.640596989993286</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5908581443947812</v>
+        <v>0.5870083949513862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6884061031671167</v>
+        <v>0.6850735296346774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -1893,19 +1893,19 @@
         <v>35174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27565</v>
+        <v>27051</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42649</v>
+        <v>42236</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6288434768257478</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4928111183040104</v>
+        <v>0.4836184930248819</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7624817962343763</v>
+        <v>0.7550954659209363</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>268</v>
@@ -1914,19 +1914,19 @@
         <v>277431</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>254709</v>
+        <v>256802</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>297805</v>
+        <v>297621</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6390825508345587</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5867398992569511</v>
+        <v>0.5915613387939669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.686014158377667</v>
+        <v>0.6855907156659968</v>
       </c>
     </row>
     <row r="21">
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8130</v>
+        <v>7280</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002954422050551013</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01166678627100923</v>
+        <v>0.01044662857999808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4959</v>
+        <v>4834</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003284139219205609</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01660677543994703</v>
+        <v>0.01618752593123696</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2060,19 +2060,19 @@
         <v>3039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9033</v>
+        <v>9122</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003053334113847293</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.000988074855177049</v>
+        <v>0.0009846177585844497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009073815043803881</v>
+        <v>0.009163924375288852</v>
       </c>
     </row>
     <row r="23">
@@ -2089,19 +2089,19 @@
         <v>4040</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12714</v>
+        <v>11833</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005797144871528212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001270037818060529</v>
+        <v>0.00127525902508286</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0182454455906832</v>
+        <v>0.01698044367677147</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2110,19 +2110,19 @@
         <v>2908</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8370</v>
+        <v>7927</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009739373831271535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003105072222019634</v>
+        <v>0.003090478539831978</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02802944768372066</v>
+        <v>0.02654439071302424</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -2131,19 +2131,19 @@
         <v>6948</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2823</v>
+        <v>2967</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15778</v>
+        <v>15740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006979776646469375</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002835895393675124</v>
+        <v>0.002980521400359539</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01585014231131212</v>
+        <v>0.01581185304352285</v>
       </c>
     </row>
     <row r="24">
@@ -2160,19 +2160,19 @@
         <v>7003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2967</v>
+        <v>2958</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14459</v>
+        <v>13944</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01004911835192348</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004257700576694116</v>
+        <v>0.004245395048115012</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02074885817214662</v>
+        <v>0.02001087125831237</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7322</v>
+        <v>6479</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006992120282207122</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02451815761022023</v>
+        <v>0.02169417370096758</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2202,19 +2202,19 @@
         <v>9091</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4179</v>
+        <v>4120</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17062</v>
+        <v>17060</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009132047555148714</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004198309849415138</v>
+        <v>0.004138704466863934</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01713977721984103</v>
+        <v>0.01713810749856737</v>
       </c>
     </row>
     <row r="25">
@@ -2231,19 +2231,19 @@
         <v>63383</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49226</v>
+        <v>49493</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>79359</v>
+        <v>79743</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09095879513014317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07064157884825784</v>
+        <v>0.07102551917130509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.113884104601371</v>
+        <v>0.1144362787850032</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2252,19 +2252,19 @@
         <v>13803</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7473</v>
+        <v>7906</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22431</v>
+        <v>23790</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04622249989728101</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02502269698538042</v>
+        <v>0.02647571016488702</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07511143092521984</v>
+        <v>0.07966376490232636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -2273,19 +2273,19 @@
         <v>77187</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61629</v>
+        <v>62334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95164</v>
+        <v>97368</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0775383254476881</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06190931140758225</v>
+        <v>0.06261791784129236</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09559754056041397</v>
+        <v>0.09781186638814363</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>620352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>602856</v>
+        <v>602208</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>635651</v>
+        <v>636145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8902405195958542</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8651338376493133</v>
+        <v>0.8642026944591336</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9121955721689829</v>
+        <v>0.9129049106386623</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>263</v>
@@ -2323,19 +2323,19 @@
         <v>278850</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>269281</v>
+        <v>267267</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>286273</v>
+        <v>285944</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9337618667700347</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9017184767484542</v>
+        <v>0.8949744227468072</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9586167524958554</v>
+        <v>0.9575176952118948</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>858</v>
@@ -2344,19 +2344,19 @@
         <v>899202</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>879104</v>
+        <v>876209</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>916913</v>
+        <v>916587</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9032965162368465</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8831066433813708</v>
+        <v>0.8801990986598148</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9210878877938883</v>
+        <v>0.92076110147478</v>
       </c>
     </row>
     <row r="27">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6013</v>
+        <v>5316</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005728776183848447</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03282452385311678</v>
+        <v>0.02901596644694499</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4918</v>
+        <v>4959</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004617040871116122</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02316940463925566</v>
+        <v>0.02336083431622673</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7146</v>
+        <v>7179</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005132053425972005</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01806889020309857</v>
+        <v>0.01815442298325638</v>
       </c>
     </row>
     <row r="29">
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5682</v>
+        <v>5750</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006082908600455262</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03101563230379477</v>
+        <v>0.03138847103277868</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10872</v>
+        <v>10858</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01497327261910797</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05121771597222404</v>
+        <v>0.05115092815946272</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2561,19 +2561,19 @@
         <v>4293</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11869</v>
+        <v>11305</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01085480212131282</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002825715274789493</v>
+        <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03001250759231754</v>
+        <v>0.02858760094647874</v>
       </c>
     </row>
     <row r="30">
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6545</v>
+        <v>6351</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01012472231112046</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03572395373846909</v>
+        <v>0.03466790360849977</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5727</v>
+        <v>6484</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004690288277198929</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01448140300239787</v>
+        <v>0.01639607666691618</v>
       </c>
     </row>
     <row r="31">
@@ -2653,19 +2653,19 @@
         <v>13788</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7197</v>
+        <v>7366</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22260</v>
+        <v>21823</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07526134627402656</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03928504991462922</v>
+        <v>0.04020812494144346</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1215078622954424</v>
+        <v>0.1191231837663375</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2674,19 +2674,19 @@
         <v>4772</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1768</v>
+        <v>1021</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10600</v>
+        <v>10450</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0224796707180224</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008328018620348116</v>
+        <v>0.004808636765774519</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04993722778024488</v>
+        <v>0.04922850999764729</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>18</v>
@@ -2695,19 +2695,19 @@
         <v>18560</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11236</v>
+        <v>11678</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>27817</v>
+        <v>28253</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04693083752576145</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02841243712576313</v>
+        <v>0.02952926099191214</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07034044852598849</v>
+        <v>0.07144188731074091</v>
       </c>
     </row>
     <row r="32">
@@ -2724,19 +2724,19 @@
         <v>165393</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>156035</v>
+        <v>156308</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>172803</v>
+        <v>172465</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9028022466305493</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8517174850578718</v>
+        <v>0.8532096173977572</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9432472014452922</v>
+        <v>0.9414045032025435</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>188</v>
@@ -2745,19 +2745,19 @@
         <v>203336</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>195065</v>
+        <v>195740</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>208480</v>
+        <v>208333</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9579300157917535</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9189649797575166</v>
+        <v>0.9221439470504286</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9821650830368267</v>
+        <v>0.9814703053978594</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>341</v>
@@ -2766,19 +2766,19 @@
         <v>368730</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>356813</v>
+        <v>356718</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>377282</v>
+        <v>378270</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9323920186497549</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9022564892125847</v>
+        <v>0.9020165349350072</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9540172242403311</v>
+        <v>0.9565139832305213</v>
       </c>
     </row>
     <row r="33">
@@ -2870,19 +2870,19 @@
         <v>30789</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20492</v>
+        <v>21369</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>44087</v>
+        <v>44089</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01640679027379289</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01091961935814302</v>
+        <v>0.01138700662961795</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02349255616985416</v>
+        <v>0.02349385550109249</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2891,19 +2891,19 @@
         <v>9600</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4865</v>
+        <v>4803</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17457</v>
+        <v>17183</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.009467812692563323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004798230518715039</v>
+        <v>0.004737004612665161</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01721770902200483</v>
+        <v>0.01694756899591686</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>40</v>
@@ -2912,19 +2912,19 @@
         <v>40389</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28823</v>
+        <v>28611</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>53511</v>
+        <v>53176</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0139728005112186</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009971541261192427</v>
+        <v>0.009898041294606674</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01851240032175195</v>
+        <v>0.01839665638850739</v>
       </c>
     </row>
     <row r="35">
@@ -2941,19 +2941,19 @@
         <v>34819</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23885</v>
+        <v>24076</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>49127</v>
+        <v>49037</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01855380302809005</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01272761877394931</v>
+        <v>0.01282935017554276</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.026178163970966</v>
+        <v>0.026130529174475</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -2962,19 +2962,19 @@
         <v>16457</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9344</v>
+        <v>9422</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26989</v>
+        <v>27447</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01623080929749116</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009215384115897859</v>
+        <v>0.009292809888921028</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02661818414845605</v>
+        <v>0.02707019087465811</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -2983,19 +2983,19 @@
         <v>51275</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>38077</v>
+        <v>37868</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>68350</v>
+        <v>66295</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01773896497844758</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.013172976550035</v>
+        <v>0.01310062232729758</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02364624479637441</v>
+        <v>0.02293516580473047</v>
       </c>
     </row>
     <row r="36">
@@ -3012,19 +3012,19 @@
         <v>50451</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36883</v>
+        <v>38884</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>66429</v>
+        <v>66996</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02688416003187862</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01965383055784919</v>
+        <v>0.02072036669551052</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03539838795431675</v>
+        <v>0.03570024851978255</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -3033,19 +3033,19 @@
         <v>9838</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4958</v>
+        <v>5016</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16981</v>
+        <v>17882</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009702583729965445</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.004889966628170555</v>
+        <v>0.004947479865437619</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01674752125564451</v>
+        <v>0.01763641830198102</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>60</v>
@@ -3054,19 +3054,19 @@
         <v>60289</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>45846</v>
+        <v>46103</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>77968</v>
+        <v>76410</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02085736713131195</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01586086352372497</v>
+        <v>0.01594947308271592</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02697334451227351</v>
+        <v>0.02643440460071553</v>
       </c>
     </row>
     <row r="37">
@@ -3083,19 +3083,19 @@
         <v>281094</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>249913</v>
+        <v>252841</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>314471</v>
+        <v>315311</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1497868985881918</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1331718512141816</v>
+        <v>0.1347318221099324</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.167572687161931</v>
+        <v>0.1680203278619714</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -3104,19 +3104,19 @@
         <v>78795</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64275</v>
+        <v>62281</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>98363</v>
+        <v>97188</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07771355186531467</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06339323637302649</v>
+        <v>0.06142634095962098</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09701301656991447</v>
+        <v>0.09585392817558001</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>348</v>
@@ -3125,19 +3125,19 @@
         <v>359889</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>325492</v>
+        <v>324147</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>394589</v>
+        <v>397900</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1245056830165362</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1126058727102864</v>
+        <v>0.1121404961084918</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1365104956944226</v>
+        <v>0.1376557387029129</v>
       </c>
     </row>
     <row r="38">
@@ -3154,19 +3154,19 @@
         <v>1479471</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1444022</v>
+        <v>1439503</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1516761</v>
+        <v>1512453</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7883683480780467</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7694787418131281</v>
+        <v>0.7670707914755216</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.808239401780665</v>
+        <v>0.8059434786235944</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>860</v>
@@ -3175,19 +3175,19 @@
         <v>899228</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>877753</v>
+        <v>878369</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>917978</v>
+        <v>918846</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8868852424146654</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8657046286079376</v>
+        <v>0.8663123496556104</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.905377648148511</v>
+        <v>0.9062335305762321</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2269</v>
@@ -3196,19 +3196,19 @@
         <v>2378700</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2338749</v>
+        <v>2334262</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2421853</v>
+        <v>2416094</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8229251843624857</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8091038144046462</v>
+        <v>0.8075516245943057</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8378543727869477</v>
+        <v>0.8358620954587357</v>
       </c>
     </row>
     <row r="39">
@@ -3541,19 +3541,19 @@
         <v>14238</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8088</v>
+        <v>7841</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26124</v>
+        <v>25881</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04716710081338744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02679382033993357</v>
+        <v>0.02597423850895881</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08654138583832842</v>
+        <v>0.08573594717369691</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3562,19 +3562,19 @@
         <v>2942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7966</v>
+        <v>7931</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01513415684043233</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004796582430878049</v>
+        <v>0.004744114502545581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04097273821176147</v>
+        <v>0.04079186663426182</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -3583,19 +3583,19 @@
         <v>17180</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9932</v>
+        <v>10064</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28486</v>
+        <v>28357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03461842701365739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02001264468961026</v>
+        <v>0.02027815075027774</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0573987777255227</v>
+        <v>0.05713980670952164</v>
       </c>
     </row>
     <row r="5">
@@ -3612,19 +3612,19 @@
         <v>15810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8572</v>
+        <v>9582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25943</v>
+        <v>26382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05237543721436937</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02839611174611173</v>
+        <v>0.03174189683833531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08594351592222632</v>
+        <v>0.08739486945375249</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7133</v>
+        <v>6990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01066878953321607</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03668732346972265</v>
+        <v>0.03595497247252898</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3654,19 +3654,19 @@
         <v>17885</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10885</v>
+        <v>10862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28335</v>
+        <v>29555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03603716004968143</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02193402396428361</v>
+        <v>0.02188734681246839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05709501561230672</v>
+        <v>0.05955310114906805</v>
       </c>
     </row>
     <row r="6">
@@ -3683,19 +3683,19 @@
         <v>15686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9692</v>
+        <v>9531</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24618</v>
+        <v>25853</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05196195432616041</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03210557945866567</v>
+        <v>0.03157434258799368</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08155163063728633</v>
+        <v>0.08564544672220907</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>15686</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8924</v>
+        <v>9759</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25265</v>
+        <v>25646</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03160623505833485</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01798246552432476</v>
+        <v>0.01966390434716668</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05090955640557134</v>
+        <v>0.05167628313464107</v>
       </c>
     </row>
     <row r="7">
@@ -3746,19 +3746,19 @@
         <v>105258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89457</v>
+        <v>89030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124259</v>
+        <v>121306</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3486910470864054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2963469487203957</v>
+        <v>0.2949324504992695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.411635500827309</v>
+        <v>0.4018544105837025</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3767,19 +3767,19 @@
         <v>31235</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20012</v>
+        <v>21726</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42329</v>
+        <v>43891</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1606647846236853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1029347719908144</v>
+        <v>0.1117513287246471</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2177259744271396</v>
+        <v>0.2257590084376541</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -3788,19 +3788,19 @@
         <v>136493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115954</v>
+        <v>116062</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159943</v>
+        <v>157841</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2750331205649101</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2336466819314141</v>
+        <v>0.2338638920095962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3222829111905</v>
+        <v>0.3180485017070804</v>
       </c>
     </row>
     <row r="8">
@@ -3817,19 +3817,19 @@
         <v>150874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133108</v>
+        <v>133810</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>168239</v>
+        <v>169730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4998044605596774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4409515565376305</v>
+        <v>0.4432777524734092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5573297475963133</v>
+        <v>0.5622703006806513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>145</v>
@@ -3838,19 +3838,19 @@
         <v>158162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146820</v>
+        <v>144882</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170231</v>
+        <v>168513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8135322690026663</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7551902187250102</v>
+        <v>0.745224002194714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8756133157247187</v>
+        <v>0.8667722206913137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>285</v>
@@ -3859,19 +3859,19 @@
         <v>309036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>282690</v>
+        <v>287808</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>330059</v>
+        <v>331739</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6227050573134162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5696183696044387</v>
+        <v>0.5799311194314102</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.665065504893084</v>
+        <v>0.6684518277023471</v>
       </c>
     </row>
     <row r="9">
@@ -3963,19 +3963,19 @@
         <v>8169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3007</v>
+        <v>2985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18261</v>
+        <v>17504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03209588918321776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01181438748845016</v>
+        <v>0.01172674232765013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07174575424459348</v>
+        <v>0.06876937582663269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5867</v>
+        <v>5003</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00600771887727726</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03533151868551545</v>
+        <v>0.03012694550604232</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -4005,19 +4005,19 @@
         <v>9167</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3973</v>
+        <v>3788</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19113</v>
+        <v>19782</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02179572014746611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009446667529803721</v>
+        <v>0.009007089879164151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04544455366747317</v>
+        <v>0.04703322416622076</v>
       </c>
     </row>
     <row r="11">
@@ -4034,19 +4034,19 @@
         <v>2992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9328</v>
+        <v>8690</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01175509403643574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003772170096368866</v>
+        <v>0.003764523924750222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03664729464533834</v>
+        <v>0.03413952680422308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6618</v>
+        <v>6915</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01205829878973703</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03985411113855015</v>
+        <v>0.04164291422763648</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -4076,19 +4076,19 @@
         <v>4994</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1957</v>
+        <v>1914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10981</v>
+        <v>10287</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01187480577454623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00465378417047224</v>
+        <v>0.004551314195075297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02610900302861837</v>
+        <v>0.02445929663180601</v>
       </c>
     </row>
     <row r="12">
@@ -4105,19 +4105,19 @@
         <v>5933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2013</v>
+        <v>2062</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12790</v>
+        <v>14482</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02330839376749192</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007908796852778675</v>
+        <v>0.008099349711299197</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05025086430549552</v>
+        <v>0.05689762571166428</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -4126,19 +4126,19 @@
         <v>4821</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12263</v>
+        <v>12137</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02903227214901258</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006353585174386131</v>
+        <v>0.006390049043277843</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0738511370524208</v>
+        <v>0.0730881338366572</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -4147,19 +4147,19 @@
         <v>10754</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5855</v>
+        <v>5103</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21612</v>
+        <v>19773</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02556830368751887</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01392029747265585</v>
+        <v>0.01213343617032948</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05138529392964363</v>
+        <v>0.04701395663841923</v>
       </c>
     </row>
     <row r="13">
@@ -4176,19 +4176,19 @@
         <v>45153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33747</v>
+        <v>32318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59908</v>
+        <v>58939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1773983246947698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1325846900997218</v>
+        <v>0.1269727877918699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2353670640627737</v>
+        <v>0.2315617691568001</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -4197,19 +4197,19 @@
         <v>17791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10819</v>
+        <v>10954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27163</v>
+        <v>28434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1071395603128212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06515003485527836</v>
+        <v>0.06596345356777816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1635743180568136</v>
+        <v>0.1712273752068928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -4218,19 +4218,19 @@
         <v>62944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48008</v>
+        <v>47964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79486</v>
+        <v>80773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1496586579841331</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1141454847733169</v>
+        <v>0.1140400431806822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1889892192372451</v>
+        <v>0.1920482769139411</v>
       </c>
     </row>
     <row r="14">
@@ -4247,19 +4247,19 @@
         <v>192283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>177515</v>
+        <v>176133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205704</v>
+        <v>206355</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7554422983180848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6974226984262597</v>
+        <v>0.6919927252741399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8081715193833289</v>
+        <v>0.8107294434408462</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -4268,19 +4268,19 @@
         <v>140445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128805</v>
+        <v>128287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>148433</v>
+        <v>149351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8457621498711519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7756678569823251</v>
+        <v>0.7725490732668364</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8938677156788359</v>
+        <v>0.8993933228920821</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>301</v>
@@ -4289,19 +4289,19 @@
         <v>332727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>313792</v>
+        <v>312565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>348752</v>
+        <v>350328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7911025124063357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7460807605505891</v>
+        <v>0.7431639211010125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8292019651508823</v>
+        <v>0.8329512292392353</v>
       </c>
     </row>
     <row r="15">
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6151</v>
+        <v>5087</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003629445666531483</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02200263715514124</v>
+        <v>0.01819823288741581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5042</v>
+        <v>5294</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002599334642650016</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01291778859782015</v>
+        <v>0.01356345753055246</v>
       </c>
     </row>
     <row r="17">
@@ -4456,19 +4456,19 @@
         <v>3470</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9937</v>
+        <v>9726</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01241177567557645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003226585292899075</v>
+        <v>0.003257406951763554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03554575831382811</v>
+        <v>0.03478860693000276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4490,19 +4490,19 @@
         <v>3470</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10309</v>
+        <v>9841</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008889059502345028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002314447467032812</v>
+        <v>0.002326822129712044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02641045434319732</v>
+        <v>0.02521195779615019</v>
       </c>
     </row>
     <row r="18">
@@ -4519,19 +4519,19 @@
         <v>8890</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4820</v>
+        <v>4099</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16862</v>
+        <v>16648</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03180113928298865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01724043871794637</v>
+        <v>0.01466216446335762</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06031461454193732</v>
+        <v>0.05955062465884792</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6265</v>
+        <v>7403</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01835160065755169</v>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05654964768646247</v>
+        <v>0.06682164112019648</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -4561,19 +4561,19 @@
         <v>10923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5886</v>
+        <v>5885</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19038</v>
+        <v>18592</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02798388472757815</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01507882153341525</v>
+        <v>0.01507704293432803</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04877262724072456</v>
+        <v>0.04762818098293735</v>
       </c>
     </row>
     <row r="19">
@@ -4590,19 +4590,19 @@
         <v>56174</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43155</v>
+        <v>42699</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70678</v>
+        <v>68543</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2009388411993683</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1543665891868485</v>
+        <v>0.1527377471244548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2528199474815937</v>
+        <v>0.2451805627031745</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -4611,19 +4611,19 @@
         <v>13704</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7837</v>
+        <v>7277</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22271</v>
+        <v>22007</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1236943350382548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07073938534534457</v>
+        <v>0.06568770529248499</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2010252457580335</v>
+        <v>0.1986396852300246</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -4632,19 +4632,19 @@
         <v>69878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56926</v>
+        <v>56313</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>88147</v>
+        <v>84308</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.179015268113651</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1458336698643291</v>
+        <v>0.1442634738686335</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2258149273620503</v>
+        <v>0.2159806371947553</v>
       </c>
     </row>
     <row r="20">
@@ -4661,19 +4661,19 @@
         <v>210011</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194696</v>
+        <v>196358</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223516</v>
+        <v>224450</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7512187981755351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6964371675480001</v>
+        <v>0.7023837717076986</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7995281285730386</v>
+        <v>0.8028686145302278</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -4682,19 +4682,19 @@
         <v>95052</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86782</v>
+        <v>85958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101573</v>
+        <v>101677</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8579540643041935</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7833043055564954</v>
+        <v>0.7758737193371696</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9168188583490929</v>
+        <v>0.9177580746926607</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>294</v>
@@ -4703,19 +4703,19 @@
         <v>305063</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>285657</v>
+        <v>289907</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>319406</v>
+        <v>319559</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7815124530137758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7318002504286865</v>
+        <v>0.7426867278611146</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8182575224992493</v>
+        <v>0.8186495789934343</v>
       </c>
     </row>
     <row r="21">
@@ -4807,19 +4807,19 @@
         <v>5565</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1846</v>
+        <v>1832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14177</v>
+        <v>14843</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01312857225529913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004354543643956951</v>
+        <v>0.00432158981783446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03344338245239931</v>
+        <v>0.03501286210308282</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -4841,19 +4841,19 @@
         <v>5565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1774</v>
+        <v>1834</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15275</v>
+        <v>14815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007678457460305248</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002447075759447692</v>
+        <v>0.002529849320911769</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02107373977024793</v>
+        <v>0.02044032589466417</v>
       </c>
     </row>
     <row r="23">
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5764</v>
+        <v>4423</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002073551966739263</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01359600241014069</v>
+        <v>0.01043434373020027</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -4894,16 +4894,16 @@
         <v>982</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8462</v>
+        <v>8605</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01035224597602921</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003262938628829923</v>
+        <v>0.003263184618744256</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02812294670271615</v>
+        <v>0.02859762881761987</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -4912,19 +4912,19 @@
         <v>3994</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10165</v>
+        <v>9149</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005510318115095306</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001375716599303375</v>
+        <v>0.001391839335963547</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01402357369082375</v>
+        <v>0.01262191257404714</v>
       </c>
     </row>
     <row r="24">
@@ -4941,19 +4941,19 @@
         <v>6253</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2147</v>
+        <v>2022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15759</v>
+        <v>15038</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01475116127249321</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005065661881015477</v>
+        <v>0.004768875528752242</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0371745539402571</v>
+        <v>0.03547373358362185</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4920</v>
+        <v>5423</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003276707843459839</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01635047778461912</v>
+        <v>0.01802290729456726</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -4983,19 +4983,19 @@
         <v>7239</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2984</v>
+        <v>3001</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18177</v>
+        <v>16850</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009987727200459899</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004116915076871526</v>
+        <v>0.004140886456111397</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02507826620783706</v>
+        <v>0.02324780761741051</v>
       </c>
     </row>
     <row r="25">
@@ -5012,19 +5012,19 @@
         <v>49271</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37109</v>
+        <v>36430</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63912</v>
+        <v>62918</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1162272384647359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08753662323090645</v>
+        <v>0.08593590202002382</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1507636041043738</v>
+        <v>0.148420188007892</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -5033,19 +5033,19 @@
         <v>21178</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13277</v>
+        <v>12342</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32891</v>
+        <v>33824</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07038256584669467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0441249464201537</v>
+        <v>0.04101835749908747</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1093094306035572</v>
+        <v>0.1124096185462195</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>64</v>
@@ -5054,19 +5054,19 @@
         <v>70449</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54376</v>
+        <v>53948</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>88208</v>
+        <v>90056</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09719556284544788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07501994522439995</v>
+        <v>0.07442981737785453</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1216973021253092</v>
+        <v>0.124246042305009</v>
       </c>
     </row>
     <row r="26">
@@ -5083,19 +5083,19 @@
         <v>361952</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>344567</v>
+        <v>346226</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>375763</v>
+        <v>376422</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8538194760407325</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8128095964224534</v>
+        <v>0.8167221621667654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8863988161585369</v>
+        <v>0.8879541292102738</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>262</v>
@@ -5104,19 +5104,19 @@
         <v>275617</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>264268</v>
+        <v>261208</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>285014</v>
+        <v>284468</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9159884803338163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.878269310586161</v>
+        <v>0.868099856501888</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9472183661860877</v>
+        <v>0.9454018469112562</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>604</v>
@@ -5125,19 +5125,19 @@
         <v>637569</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>616921</v>
+        <v>617308</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>654778</v>
+        <v>656319</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8796279343786917</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8511398442319315</v>
+        <v>0.8516744082532514</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9033694712687267</v>
+        <v>0.9054965668327751</v>
       </c>
     </row>
     <row r="27">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5104</v>
+        <v>5740</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006433547046381773</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03338260963570173</v>
+        <v>0.03754183869404542</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5608</v>
+        <v>4810</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005607074966971839</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03245667732992583</v>
+        <v>0.0278391146450161</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8158</v>
+        <v>6831</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005995073999563841</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02504966189787305</v>
+        <v>0.02097483623271616</v>
       </c>
     </row>
     <row r="29">
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5052</v>
+        <v>5338</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006233760268157139</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03304400197265825</v>
+        <v>0.03491299788703583</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9881</v>
+        <v>10585</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01691220157379396</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05719010691543762</v>
+        <v>0.06126361977236539</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -5342,19 +5342,19 @@
         <v>3875</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12125</v>
+        <v>10533</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01189905594020444</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002935975864211335</v>
+        <v>0.002925597009607155</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03723069100270288</v>
+        <v>0.03234266542938252</v>
       </c>
     </row>
     <row r="30">
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7772</v>
+        <v>7251</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0143507826861914</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05083205860225414</v>
+        <v>0.04742976886047684</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5392,19 +5392,19 @@
         <v>2982</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7998</v>
+        <v>8063</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01725689872284637</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005356970038799146</v>
+        <v>0.005340304110456689</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0462899524130694</v>
+        <v>0.04666504965369175</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -5413,19 +5413,19 @@
         <v>5176</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2054</v>
+        <v>2000</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11547</v>
+        <v>11764</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01589258135639974</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006306432580300753</v>
+        <v>0.006140519901716469</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03545752168322062</v>
+        <v>0.03612329598255061</v>
       </c>
     </row>
     <row r="31">
@@ -5442,19 +5442,19 @@
         <v>5399</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1921</v>
+        <v>1955</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11705</v>
+        <v>12592</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03531163578420575</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01256202057403709</v>
+        <v>0.01278750365374232</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07656006999009073</v>
+        <v>0.08235851873940295</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5463,19 +5463,19 @@
         <v>5034</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1954</v>
+        <v>1998</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11240</v>
+        <v>10908</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02913293216857941</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01131110280355001</v>
+        <v>0.01156607542791459</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06505266518526957</v>
+        <v>0.06313124220320442</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -5484,19 +5484,19 @@
         <v>10432</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5327</v>
+        <v>5137</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19064</v>
+        <v>19639</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03203361216160146</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01635635180400456</v>
+        <v>0.01577286350003311</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05853766222672733</v>
+        <v>0.06030397225522176</v>
       </c>
     </row>
     <row r="32">
@@ -5513,19 +5513,19 @@
         <v>143359</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>135883</v>
+        <v>133986</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>148663</v>
+        <v>148472</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9376702742150639</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8887758484291615</v>
+        <v>0.8763650399922411</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9723672814949591</v>
+        <v>0.9711180275109521</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>146</v>
@@ -5534,19 +5534,19 @@
         <v>160871</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>153072</v>
+        <v>152175</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>166727</v>
+        <v>166617</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9310908925678084</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8859518525562423</v>
+        <v>0.8807578225439725</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.964982264012739</v>
+        <v>0.9643484796188182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>281</v>
@@ -5555,19 +5555,19 @@
         <v>304230</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>292999</v>
+        <v>293798</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>312171</v>
+        <v>312689</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9341796765422306</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8996949480030887</v>
+        <v>0.9021480884359724</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9585654020005272</v>
+        <v>0.9601544521270701</v>
       </c>
     </row>
     <row r="33">
@@ -5659,19 +5659,19 @@
         <v>29971</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19761</v>
+        <v>19579</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45634</v>
+        <v>46185</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02121459421496735</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01398774587592858</v>
+        <v>0.01385849911703015</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03230147756783162</v>
+        <v>0.03269089091030579</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -5680,19 +5680,19 @@
         <v>4909</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1909</v>
+        <v>1945</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10691</v>
+        <v>10798</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005194745840775616</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002019922378926084</v>
+        <v>0.002058639805719119</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01131376268115066</v>
+        <v>0.0114273076172265</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>29</v>
@@ -5701,19 +5701,19 @@
         <v>34880</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23524</v>
+        <v>22526</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>51172</v>
+        <v>50111</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01479405925563122</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009977633715483915</v>
+        <v>0.009554409019428197</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.021704072353093</v>
+        <v>0.02125402268126417</v>
       </c>
     </row>
     <row r="35">
@@ -5730,19 +5730,19 @@
         <v>24104</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15626</v>
+        <v>14704</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37054</v>
+        <v>35738</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0170617854813142</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01106079265611081</v>
+        <v>0.01040829655112671</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02622780006148755</v>
+        <v>0.02529618684204147</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -5751,19 +5751,19 @@
         <v>10114</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5011</v>
+        <v>5126</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19211</v>
+        <v>20731</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01070289108021998</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005303393608195574</v>
+        <v>0.005424335323607539</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02033017581301017</v>
+        <v>0.02193962953767884</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -5772,19 +5772,19 @@
         <v>34218</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23586</v>
+        <v>23436</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>48098</v>
+        <v>47955</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01451322803861543</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01000379216830009</v>
+        <v>0.009940052544210098</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02040029245617605</v>
+        <v>0.02033983204271382</v>
       </c>
     </row>
     <row r="36">
@@ -5801,19 +5801,19 @@
         <v>38956</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>28428</v>
+        <v>27300</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>54258</v>
+        <v>52244</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02757424958798805</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02012212453389699</v>
+        <v>0.01932367259571375</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03840533962229659</v>
+        <v>0.03697989224444408</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -5822,19 +5822,19 @@
         <v>10822</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4983</v>
+        <v>5070</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19549</v>
+        <v>18196</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01145235671806592</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005273226433787051</v>
+        <v>0.005365358705618314</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02068846727648456</v>
+        <v>0.0192564237330672</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>47</v>
@@ -5843,19 +5843,19 @@
         <v>49778</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>36574</v>
+        <v>37750</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>66074</v>
+        <v>66628</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02111281659785031</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01551239557231359</v>
+        <v>0.01601138093739653</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02802457129661157</v>
+        <v>0.02825981699078377</v>
       </c>
     </row>
     <row r="37">
@@ -5872,19 +5872,19 @@
         <v>261256</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>230462</v>
+        <v>233509</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>291518</v>
+        <v>293229</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1849248983513401</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1631281494167618</v>
+        <v>0.165285184467442</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2063458213077358</v>
+        <v>0.2075569928325068</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>77</v>
@@ -5893,19 +5893,19 @@
         <v>88942</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>71246</v>
+        <v>71404</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>108803</v>
+        <v>108550</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09412524121062685</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07539762533792148</v>
+        <v>0.07556510184735737</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1151432573836032</v>
+        <v>0.1148756384564177</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>326</v>
@@ -5914,19 +5914,19 @@
         <v>350198</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>315103</v>
+        <v>316322</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>385788</v>
+        <v>384660</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1485336442426633</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1336484648557251</v>
+        <v>0.1341655609544389</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1636288211089927</v>
+        <v>0.1631506236902353</v>
       </c>
     </row>
     <row r="38">
@@ -5943,19 +5943,19 @@
         <v>1058479</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1025526</v>
+        <v>1022084</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1093062</v>
+        <v>1089454</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7492244723643904</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.725899720930923</v>
+        <v>0.7234631373548904</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7737034443212938</v>
+        <v>0.7711493848614828</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>771</v>
@@ -5964,19 +5964,19 @@
         <v>830147</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>808124</v>
+        <v>806280</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>849274</v>
+        <v>850143</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8785247651503116</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8552179090582038</v>
+        <v>0.853267292084619</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8987659827186174</v>
+        <v>0.8996859772676813</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1765</v>
@@ -5985,19 +5985,19 @@
         <v>1888626</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1846937</v>
+        <v>1848750</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1927207</v>
+        <v>1926507</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8010462518652397</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7833642116809889</v>
+        <v>0.7841332218875766</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8174101359907567</v>
+        <v>0.8171131561681694</v>
       </c>
     </row>
     <row r="39">
@@ -6330,19 +6330,19 @@
         <v>7650</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3074</v>
+        <v>3172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15626</v>
+        <v>16536</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02771052177243371</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01113448348685168</v>
+        <v>0.01148912959464344</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05660678711921921</v>
+        <v>0.05990330781618525</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8891</v>
+        <v>9224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01206959644738506</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04207148743543027</v>
+        <v>0.04364647356740912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6372,19 +6372,19 @@
         <v>10200</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4619</v>
+        <v>4806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18506</v>
+        <v>19476</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02092859945650007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009477682633904014</v>
+        <v>0.009860325683528877</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03797060150865918</v>
+        <v>0.03995971509252689</v>
       </c>
     </row>
     <row r="5">
@@ -6401,19 +6401,19 @@
         <v>8555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4048</v>
+        <v>3816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16988</v>
+        <v>15942</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03099179371292325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01466494202661696</v>
+        <v>0.01382492962582293</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06154054008058103</v>
+        <v>0.05774890416353341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -6422,19 +6422,19 @@
         <v>4731</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1822</v>
+        <v>1840</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9742</v>
+        <v>10487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0223879417786041</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008619627726648647</v>
+        <v>0.008707606544072885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04610106580802712</v>
+        <v>0.04962273242561629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -6443,19 +6443,19 @@
         <v>13287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7415</v>
+        <v>7571</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22026</v>
+        <v>22029</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02726115411048871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01521346195231669</v>
+        <v>0.01553484967781982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04519261107315228</v>
+        <v>0.04519825642974837</v>
       </c>
     </row>
     <row r="6">
@@ -6472,19 +6472,19 @@
         <v>14696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7897</v>
+        <v>7723</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25002</v>
+        <v>23269</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05323531474066245</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02860833653214709</v>
+        <v>0.02797712221612684</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09057131446517795</v>
+        <v>0.08429207271489104</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -6493,19 +6493,19 @@
         <v>7257</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2975</v>
+        <v>2905</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13977</v>
+        <v>14003</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03434016769912523</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01407651079796602</v>
+        <v>0.0137470011669311</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06613675650241693</v>
+        <v>0.06626300465355894</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -6514,19 +6514,19 @@
         <v>21953</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13739</v>
+        <v>14050</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33593</v>
+        <v>32771</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04504235833170714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02818852578249783</v>
+        <v>0.02882840690410173</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06892553451570804</v>
+        <v>0.06723874393301574</v>
       </c>
     </row>
     <row r="7">
@@ -6543,19 +6543,19 @@
         <v>46675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35158</v>
+        <v>35394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59661</v>
+        <v>61580</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1690808527709796</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1273614089635907</v>
+        <v>0.1282127496489127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2161230710640041</v>
+        <v>0.2230744870260486</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -6564,19 +6564,19 @@
         <v>20503</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13068</v>
+        <v>13247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31097</v>
+        <v>29667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0970179398470184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06183959497878654</v>
+        <v>0.0626838514128981</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1471511648261779</v>
+        <v>0.1403808516845288</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -6585,19 +6585,19 @@
         <v>67178</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52517</v>
+        <v>54027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84760</v>
+        <v>83931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1378342949648688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1077532187341316</v>
+        <v>0.1108517171738957</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1739092923614276</v>
+        <v>0.1722085958005036</v>
       </c>
     </row>
     <row r="8">
@@ -6614,19 +6614,19 @@
         <v>198477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>183379</v>
+        <v>181151</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>214058</v>
+        <v>212639</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7189815170030009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6642903251242352</v>
+        <v>0.6562166099185208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7754234814899057</v>
+        <v>0.7702835791240991</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>173</v>
@@ -6635,19 +6635,19 @@
         <v>176287</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>163929</v>
+        <v>165198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>186261</v>
+        <v>185967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8341843542278672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7757070751438064</v>
+        <v>0.7817118329092526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8813799610479313</v>
+        <v>0.8799880119900229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>354</v>
@@ -6656,19 +6656,19 @@
         <v>374764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>355076</v>
+        <v>353346</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>392318</v>
+        <v>392731</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7689335931364353</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7285379245252602</v>
+        <v>0.7249881065889509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8049495479131406</v>
+        <v>0.8057972765401457</v>
       </c>
     </row>
     <row r="9">
@@ -6760,19 +6760,19 @@
         <v>8453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3753</v>
+        <v>3675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16352</v>
+        <v>17863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03488518459345165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01548663337857909</v>
+        <v>0.01516519479042081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06748232929555871</v>
+        <v>0.07371831315661007</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4858</v>
+        <v>4470</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004678917046756857</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0256809875627634</v>
+        <v>0.0236306797385241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -6802,19 +6802,19 @@
         <v>9338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4655</v>
+        <v>4660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17817</v>
+        <v>18174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02164201755196564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01078717598300761</v>
+        <v>0.0108000078848681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0412925224469909</v>
+        <v>0.04211933108859052</v>
       </c>
     </row>
     <row r="11">
@@ -6831,19 +6831,19 @@
         <v>4517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13039</v>
+        <v>12523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01863930273562922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003974971739306645</v>
+        <v>0.003956011322163369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05380912124236013</v>
+        <v>0.05168018112545552</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4520</v>
+        <v>4484</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004678917046756857</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.023892979155483</v>
+        <v>0.02370197123748153</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -6873,19 +6873,19 @@
         <v>5402</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1754</v>
+        <v>915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13353</v>
+        <v>13186</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01251872794579435</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004064940796465204</v>
+        <v>0.002119438114100933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03094552587586573</v>
+        <v>0.03055992626861258</v>
       </c>
     </row>
     <row r="12">
@@ -6902,19 +6902,19 @@
         <v>8762</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3208</v>
+        <v>4093</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17727</v>
+        <v>17824</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03615890569192895</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01323886390084231</v>
+        <v>0.0168895975889857</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.073155438357997</v>
+        <v>0.07355662391458749</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5664</v>
+        <v>6563</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009926951783202367</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02993967320307168</v>
+        <v>0.03469501525302442</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -6944,19 +6944,19 @@
         <v>10640</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5167</v>
+        <v>5532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21098</v>
+        <v>20682</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02465817502731427</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01197437805085611</v>
+        <v>0.01282095375849463</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04889601836657186</v>
+        <v>0.04793242558430395</v>
       </c>
     </row>
     <row r="13">
@@ -6973,19 +6973,19 @@
         <v>26111</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17231</v>
+        <v>16907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39653</v>
+        <v>38456</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1077562190488185</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07111146581844374</v>
+        <v>0.06977313836376063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1636427599882303</v>
+        <v>0.158703890260254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -6994,19 +6994,19 @@
         <v>16501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9899</v>
+        <v>10015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25883</v>
+        <v>26299</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08722401542543215</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05232646763266815</v>
+        <v>0.05293791864604323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1368194508931663</v>
+        <v>0.1390200630721313</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -7015,19 +7015,19 @@
         <v>42612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29959</v>
+        <v>31399</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56819</v>
+        <v>57424</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09875439842023631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06943186572769765</v>
+        <v>0.07276816987261636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1316799450610026</v>
+        <v>0.1330840605606914</v>
       </c>
     </row>
     <row r="14">
@@ -7044,19 +7044,19 @@
         <v>194472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181558</v>
+        <v>179647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>207529</v>
+        <v>206411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8025603879301717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7492666244967758</v>
+        <v>0.7413818393707051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8564473416182364</v>
+        <v>0.8518318685963283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -7065,19 +7065,19 @@
         <v>169027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159266</v>
+        <v>159572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176380</v>
+        <v>176152</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8934911986978518</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8418914888075855</v>
+        <v>0.8435104985917562</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9323582948088641</v>
+        <v>0.9311554086860132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>344</v>
@@ -7086,19 +7086,19 @@
         <v>363499</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>347774</v>
+        <v>346939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>379528</v>
+        <v>378606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8424266810546894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8059833533856503</v>
+        <v>0.8040478940862059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8795749496496044</v>
+        <v>0.8774379273567579</v>
       </c>
     </row>
     <row r="15">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4970</v>
+        <v>6095</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01499631251577228</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07632801010797639</v>
+        <v>0.09360009353003093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4947</v>
+        <v>4809</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00352048440369277</v>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01783431693532418</v>
+        <v>0.01733541413627921</v>
       </c>
     </row>
     <row r="17">
@@ -7253,19 +7253,19 @@
         <v>3866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12029</v>
+        <v>11477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01821128259956264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004169023340942495</v>
+        <v>0.004223239390545644</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05666995743658156</v>
+        <v>0.05406666347976941</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>3866</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11447</v>
+        <v>10338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01393606252158869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003199854858434409</v>
+        <v>0.003228893671627626</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04126714902188149</v>
+        <v>0.03727111883978492</v>
       </c>
     </row>
     <row r="18">
@@ -7316,19 +7316,19 @@
         <v>8747</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4106</v>
+        <v>4159</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16115</v>
+        <v>15266</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04120778613500066</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01934475075901792</v>
+        <v>0.01959272580758714</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07591948557567725</v>
+        <v>0.07191866729592655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6239</v>
+        <v>6361</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0313663563019463</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09580377098054434</v>
+        <v>0.09768140254331717</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -7358,19 +7358,19 @@
         <v>10790</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5478</v>
+        <v>5565</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19106</v>
+        <v>18848</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03889744482937201</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01974724813942148</v>
+        <v>0.02006358543113769</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06888069504232147</v>
+        <v>0.06794926751405023</v>
       </c>
     </row>
     <row r="19">
@@ -7387,19 +7387,19 @@
         <v>31674</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22402</v>
+        <v>22266</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43555</v>
+        <v>43789</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1492176451048136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.105538754685676</v>
+        <v>0.1048954331908257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2051878625487014</v>
+        <v>0.2062914188349519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -7408,19 +7408,19 @@
         <v>13460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6969</v>
+        <v>7818</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20644</v>
+        <v>21245</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.206704405698791</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.10702193333858</v>
+        <v>0.1200608388993725</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3170252436372715</v>
+        <v>0.3262525628266291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -7429,19 +7429,19 @@
         <v>45134</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33782</v>
+        <v>33635</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58530</v>
+        <v>59120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1627130456492518</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1217872553257161</v>
+        <v>0.1212582713281582</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2110050742570996</v>
+        <v>0.2131332404606907</v>
       </c>
     </row>
     <row r="20">
@@ -7458,19 +7458,19 @@
         <v>167980</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153648</v>
+        <v>155164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179466</v>
+        <v>179399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.791363286160623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7238426666229102</v>
+        <v>0.7309850422069174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8454733923264929</v>
+        <v>0.8451555442230027</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -7479,19 +7479,19 @@
         <v>48639</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41198</v>
+        <v>40926</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55747</v>
+        <v>55004</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7469329254834904</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6326597675467556</v>
+        <v>0.6284892448563513</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8560982870879361</v>
+        <v>0.84468325944167</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>208</v>
@@ -7500,19 +7500,19 @@
         <v>216619</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>203141</v>
+        <v>202769</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>229964</v>
+        <v>229706</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7809329625960948</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7323430545668328</v>
+        <v>0.7310003111013281</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8290420066237807</v>
+        <v>0.8281111845308783</v>
       </c>
     </row>
     <row r="21">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4826</v>
+        <v>5860</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002015820667044892</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01002321423146126</v>
+        <v>0.01216963884271</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -7625,19 +7625,19 @@
         <v>2827</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7800</v>
+        <v>7601</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007770131282281211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002471112719472341</v>
+        <v>0.002480201478245279</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02143685715345568</v>
+        <v>0.02088801955780679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -7646,19 +7646,19 @@
         <v>3798</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9360</v>
+        <v>8693</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004492571772612788</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001149311048512167</v>
+        <v>0.001141181499558466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0110714842124438</v>
+        <v>0.01028329064659578</v>
       </c>
     </row>
     <row r="23">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6890</v>
+        <v>5943</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004063770459205149</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01430977775489524</v>
+        <v>0.01234118302383635</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6876</v>
+        <v>6737</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002314655986489609</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008133540471419735</v>
+        <v>0.007969372230189021</v>
       </c>
     </row>
     <row r="24">
@@ -7738,19 +7738,19 @@
         <v>7161</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3121</v>
+        <v>3035</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14451</v>
+        <v>15090</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01487101147650512</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006481975734171334</v>
+        <v>0.006302681104714274</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03001208548690327</v>
+        <v>0.0313375349125244</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -7759,19 +7759,19 @@
         <v>3662</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10890</v>
+        <v>10107</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01006341546431299</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002541250983594124</v>
+        <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02992885818745694</v>
+        <v>0.02777620900480639</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -7780,19 +7780,19 @@
         <v>10823</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4948</v>
+        <v>5153</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19316</v>
+        <v>18740</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01280174210011925</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005852842860615356</v>
+        <v>0.006095517884331859</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02284801657725295</v>
+        <v>0.02216774721736864</v>
       </c>
     </row>
     <row r="25">
@@ -7809,19 +7809,19 @@
         <v>58065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44279</v>
+        <v>44184</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75051</v>
+        <v>74706</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1205866083888167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09195723922501849</v>
+        <v>0.09175882319943109</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1558627363281642</v>
+        <v>0.1551464824081313</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -7830,19 +7830,19 @@
         <v>20544</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12740</v>
+        <v>12204</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32576</v>
+        <v>31782</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05646022971486019</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03501261475592912</v>
+        <v>0.03353998582536028</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08952497559520205</v>
+        <v>0.08734449641565155</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -7851,19 +7851,19 @@
         <v>78609</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61120</v>
+        <v>63034</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>98085</v>
+        <v>97577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09298554721977782</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07229747702256199</v>
+        <v>0.07456180741620147</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.116022660502942</v>
+        <v>0.1154213486337017</v>
       </c>
     </row>
     <row r="26">
@@ -7880,19 +7880,19 @@
         <v>413369</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>394653</v>
+        <v>395633</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>427824</v>
+        <v>428292</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8584627890084282</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8195941964092972</v>
+        <v>0.8216307282410347</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8884833493087468</v>
+        <v>0.8894550631237504</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>335</v>
@@ -7901,19 +7901,19 @@
         <v>336839</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>323638</v>
+        <v>324749</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>346570</v>
+        <v>345979</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9257062235385456</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.889428972407507</v>
+        <v>0.8924818488528851</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9524500511813122</v>
+        <v>0.9508254669039881</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>728</v>
@@ -7922,19 +7922,19 @@
         <v>750207</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>730529</v>
+        <v>728657</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>768810</v>
+        <v>767019</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8874054829210005</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8641281550018645</v>
+        <v>0.8619143178413997</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9094098220315147</v>
+        <v>0.9072915797170336</v>
       </c>
     </row>
     <row r="27">
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6085</v>
+        <v>5070</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005332672751951491</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03179682519069645</v>
+        <v>0.02649266151906375</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5158</v>
+        <v>5694</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002644627689568494</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01336635610559022</v>
+        <v>0.01475496716683389</v>
       </c>
     </row>
     <row r="29">
@@ -8136,19 +8136,19 @@
         <v>4293</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1134</v>
+        <v>1153</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10756</v>
+        <v>10453</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02243465552654121</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005925812385247427</v>
+        <v>0.006024770716014781</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05620374502336658</v>
+        <v>0.05461916446320825</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6756</v>
+        <v>6748</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0114344187830972</v>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03473093796856248</v>
+        <v>0.03469085232176857</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -8178,19 +8178,19 @@
         <v>6518</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2324</v>
+        <v>2251</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>13520</v>
+        <v>13826</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01688975647897864</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006022764017761299</v>
+        <v>0.005832571769484642</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03503602707493132</v>
+        <v>0.03582740782557086</v>
       </c>
     </row>
     <row r="31">
@@ -8207,19 +8207,19 @@
         <v>10094</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4959</v>
+        <v>5008</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18952</v>
+        <v>19326</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05274353246455248</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0259122111265647</v>
+        <v>0.02616987023089242</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09902800580694221</v>
+        <v>0.1009839345503027</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5713</v>
+        <v>7256</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.009555152833610655</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02936994651573631</v>
+        <v>0.03730086574716055</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -8249,19 +8249,19 @@
         <v>11953</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6134</v>
+        <v>6703</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>20432</v>
+        <v>21563</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03097352781223407</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01589628029576585</v>
+        <v>0.01737047227489285</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0529455186766607</v>
+        <v>0.05587753054911954</v>
       </c>
     </row>
     <row r="32">
@@ -8278,19 +8278,19 @@
         <v>175970</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>167114</v>
+        <v>166180</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>182972</v>
+        <v>182145</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9194891392569549</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8732163840167561</v>
+        <v>0.8683338375854849</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9560778060662242</v>
+        <v>0.9517559579319125</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>185</v>
@@ -8299,19 +8299,19 @@
         <v>190437</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>184915</v>
+        <v>185046</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>193415</v>
+        <v>193418</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9790104283832921</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9506224188421534</v>
+        <v>0.9512947439261459</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9943175633210337</v>
+        <v>0.994335168255704</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>346</v>
@@ -8320,19 +8320,19 @@
         <v>366407</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>355908</v>
+        <v>355436</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>373703</v>
+        <v>374260</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9494920880192188</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9222850572861118</v>
+        <v>0.9210612828912901</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9683984312877746</v>
+        <v>0.9698413126286716</v>
       </c>
     </row>
     <row r="33">
@@ -8424,19 +8424,19 @@
         <v>18094</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10382</v>
+        <v>9895</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29151</v>
+        <v>27836</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01289171733712194</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007397309049639162</v>
+        <v>0.007049815137971237</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02076960374557328</v>
+        <v>0.01983312111376644</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -8445,19 +8445,19 @@
         <v>7240</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3409</v>
+        <v>2822</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15551</v>
+        <v>13984</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007069874074135709</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003329101461298748</v>
+        <v>0.002755409875673027</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01518611770988986</v>
+        <v>0.01365630778781216</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>23</v>
@@ -8466,19 +8466,19 @@
         <v>25334</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>16377</v>
+        <v>16251</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37453</v>
+        <v>37322</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01043588477536761</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006746470689010397</v>
+        <v>0.006694329238206009</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01542849410340598</v>
+        <v>0.01537431389176642</v>
       </c>
     </row>
     <row r="35">
@@ -8495,19 +8495,19 @@
         <v>18894</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10657</v>
+        <v>11602</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31172</v>
+        <v>30090</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01346200331041959</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007593014159581048</v>
+        <v>0.008266527225342947</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02220987128206897</v>
+        <v>0.02143907729956856</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -8516,19 +8516,19 @@
         <v>5616</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1938</v>
+        <v>1898</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12171</v>
+        <v>11267</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005484654088377198</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001892395139091793</v>
+        <v>0.001853139868771773</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01188580759950056</v>
+        <v>0.01100298899416119</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>22</v>
@@ -8537,19 +8537,19 @@
         <v>24511</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15284</v>
+        <v>15825</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>36650</v>
+        <v>37188</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0100969120341683</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006295860737991062</v>
+        <v>0.006518840752398771</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01509736759066387</v>
+        <v>0.0153189785622226</v>
       </c>
     </row>
     <row r="36">
@@ -8566,19 +8566,19 @@
         <v>43659</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31698</v>
+        <v>30615</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>60426</v>
+        <v>57965</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03110636008383112</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02258406997139865</v>
+        <v>0.02181249219357975</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04305281001565717</v>
+        <v>0.04129943172280386</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -8587,19 +8587,19 @@
         <v>17064</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10612</v>
+        <v>9534</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>28378</v>
+        <v>27884</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01666338229958878</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01036310061264103</v>
+        <v>0.009310241285104064</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0277127196721969</v>
+        <v>0.02723035240774921</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>55</v>
@@ -8608,19 +8608,19 @@
         <v>60722</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>46557</v>
+        <v>46528</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>78064</v>
+        <v>79837</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02501386780449703</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01917839814269728</v>
+        <v>0.01916649127727646</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03215754782916829</v>
+        <v>0.03288773440418129</v>
       </c>
     </row>
     <row r="37">
@@ -8637,19 +8637,19 @@
         <v>172619</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>147724</v>
+        <v>150114</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>198221</v>
+        <v>198227</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1229889004813821</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1052515134691238</v>
+        <v>0.1069542831210201</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1412296992543315</v>
+        <v>0.1412340467213211</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>68</v>
@@ -8658,19 +8658,19 @@
         <v>72867</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>56737</v>
+        <v>57239</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91146</v>
+        <v>91374</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0711576759169273</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05540640597828307</v>
+        <v>0.05589695633575804</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08900816908003453</v>
+        <v>0.08923101398256787</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>227</v>
@@ -8679,19 +8679,19 @@
         <v>245486</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>216018</v>
+        <v>217396</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>278646</v>
+        <v>275090</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1011248956892472</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08898600474306959</v>
+        <v>0.08955371188010947</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1147848181444998</v>
+        <v>0.1133202606289762</v>
       </c>
     </row>
     <row r="38">
@@ -8708,19 +8708,19 @@
         <v>1150268</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1119050</v>
+        <v>1121922</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1179423</v>
+        <v>1177664</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8195510187872452</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7973084388419667</v>
+        <v>0.7993548660521989</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8403235364233271</v>
+        <v>0.8390702412318866</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>904</v>
@@ -8729,19 +8729,19 @@
         <v>921229</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>899438</v>
+        <v>899823</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>939538</v>
+        <v>938217</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.899624413620971</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8783444583939437</v>
+        <v>0.8787202540046476</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9175038747816389</v>
+        <v>0.9162144909742166</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1980</v>
@@ -8750,19 +8750,19 @@
         <v>2071497</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2033120</v>
+        <v>2036740</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2106726</v>
+        <v>2104287</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8533284396967198</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8375197499233785</v>
+        <v>0.839010838626731</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8678407666181698</v>
+        <v>0.866836087352741</v>
       </c>
     </row>
     <row r="39">
@@ -9095,19 +9095,19 @@
         <v>19220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11814</v>
+        <v>11125</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32707</v>
+        <v>31284</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05201874672597333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03197474072228782</v>
+        <v>0.03011007328092186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08852039622957321</v>
+        <v>0.08466765791339821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -9116,19 +9116,19 @@
         <v>6699</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2897</v>
+        <v>3189</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12106</v>
+        <v>12533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02028017932444476</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008770260070179057</v>
+        <v>0.009655326257932327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03665054979378273</v>
+        <v>0.03794355907733393</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -9137,19 +9137,19 @@
         <v>25919</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17107</v>
+        <v>17300</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38656</v>
+        <v>38572</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03703765303959933</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02444482693596798</v>
+        <v>0.02472063070357081</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05523861013198358</v>
+        <v>0.0551175682231614</v>
       </c>
     </row>
     <row r="5">
@@ -9166,19 +9166,19 @@
         <v>16914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9757</v>
+        <v>10058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27503</v>
+        <v>27859</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04577704521068669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02640676592423496</v>
+        <v>0.02722127479394926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07443568661971871</v>
+        <v>0.07539810082810899</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -9187,19 +9187,19 @@
         <v>8946</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4823</v>
+        <v>4606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15309</v>
+        <v>16207</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02708223818767629</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01460045155112957</v>
+        <v>0.01394506869426993</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04634563688877303</v>
+        <v>0.04906544664097632</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -9208,19 +9208,19 @@
         <v>25860</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16944</v>
+        <v>17894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38813</v>
+        <v>38103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03695280774850958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02421253914212056</v>
+        <v>0.02557037012293037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05546295198391351</v>
+        <v>0.05444827732154867</v>
       </c>
     </row>
     <row r="6">
@@ -9237,19 +9237,19 @@
         <v>25126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15913</v>
+        <v>16079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36764</v>
+        <v>37303</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06800187098787948</v>
+        <v>0.06800187098787949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04306757341681924</v>
+        <v>0.04351580400205055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09950119425541945</v>
+        <v>0.1009593632345542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -9258,19 +9258,19 @@
         <v>12089</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6870</v>
+        <v>7250</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18965</v>
+        <v>18425</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03659793296440984</v>
+        <v>0.03659793296440985</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02079782845516832</v>
+        <v>0.02194759835019069</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0574146498022718</v>
+        <v>0.05577807130874669</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -9279,19 +9279,19 @@
         <v>37215</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26659</v>
+        <v>27756</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49736</v>
+        <v>52652</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05317872753282792</v>
+        <v>0.0531787275328279</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03809420692294501</v>
+        <v>0.03966195547593988</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07107138331614976</v>
+        <v>0.07523749266324055</v>
       </c>
     </row>
     <row r="7">
@@ -9308,19 +9308,19 @@
         <v>61950</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47969</v>
+        <v>48227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81137</v>
+        <v>79830</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1676646527646347</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1298246225332523</v>
+        <v>0.1305249883823956</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2195928273380647</v>
+        <v>0.216057315102566</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -9329,19 +9329,19 @@
         <v>35831</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27094</v>
+        <v>27314</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45666</v>
+        <v>45425</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1084752044819645</v>
+        <v>0.1084752044819646</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08202394095668479</v>
+        <v>0.08268947016332086</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1382496859710641</v>
+        <v>0.1375198833553111</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -9350,19 +9350,19 @@
         <v>97781</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81052</v>
+        <v>79691</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119045</v>
+        <v>117385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1397263196083384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1158213596174876</v>
+        <v>0.113875615769745</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1701111268542236</v>
+        <v>0.1677391669720685</v>
       </c>
     </row>
     <row r="8">
@@ -9379,19 +9379,19 @@
         <v>246277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>225262</v>
+        <v>225669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>266372</v>
+        <v>265103</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6665376843108259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6096612668569873</v>
+        <v>0.6107627999417107</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7209228345193804</v>
+        <v>0.7174889852269928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>349</v>
@@ -9400,19 +9400,19 @@
         <v>266754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>254430</v>
+        <v>254173</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278940</v>
+        <v>277387</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8075644450415044</v>
+        <v>0.8075644450415045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7702542806336795</v>
+        <v>0.7694764922364462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8444574783615045</v>
+        <v>0.8397559382979755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>561</v>
@@ -9421,19 +9421,19 @@
         <v>513031</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>490019</v>
+        <v>488756</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>535722</v>
+        <v>537565</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7331044920707247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7002206888188088</v>
+        <v>0.6984161241745537</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7655295411645744</v>
+        <v>0.7681626269067253</v>
       </c>
     </row>
     <row r="9">
@@ -9525,19 +9525,19 @@
         <v>10897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5409</v>
+        <v>5608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19011</v>
+        <v>19974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03438008255643687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01706451814493559</v>
+        <v>0.01769366879327234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05998236147039091</v>
+        <v>0.06302122819962015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -9549,16 +9549,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4848</v>
+        <v>4675</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.006595431866514261</v>
+        <v>0.006595431866514262</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01790036909937396</v>
+        <v>0.01726270898393471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -9567,19 +9567,19 @@
         <v>12683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6618</v>
+        <v>7348</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21091</v>
+        <v>21683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02157766592654212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01125887211340448</v>
+        <v>0.01250083860352359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03588233705703819</v>
+        <v>0.03688920479723021</v>
       </c>
     </row>
     <row r="11">
@@ -9596,19 +9596,19 @@
         <v>2473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6525</v>
+        <v>7380</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007802818272765188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002074434740736898</v>
+        <v>0.002097337445061109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02058582491034726</v>
+        <v>0.02328323251737842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -9617,19 +9617,19 @@
         <v>5259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10817</v>
+        <v>10333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01941748570081321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00820015715324097</v>
+        <v>0.008210578538489579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03994074360108601</v>
+        <v>0.03815185517241676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -9638,19 +9638,19 @@
         <v>7732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3952</v>
+        <v>3832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13568</v>
+        <v>14497</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01315454333459835</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006722922518359225</v>
+        <v>0.006518745452029733</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02308290108546748</v>
+        <v>0.02466337932364698</v>
       </c>
     </row>
     <row r="12">
@@ -9667,19 +9667,19 @@
         <v>7230</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2317</v>
+        <v>2947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15483</v>
+        <v>15779</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.022811554740514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007311798557668805</v>
+        <v>0.009298287153422624</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0488492424809218</v>
+        <v>0.04978432666823101</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -9688,19 +9688,19 @@
         <v>4257</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9107</v>
+        <v>9241</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01571856364914569</v>
+        <v>0.0157185636491457</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006117624030112892</v>
+        <v>0.006138476447712837</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03362557257207187</v>
+        <v>0.03412155240961148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -9709,19 +9709,19 @@
         <v>11487</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6323</v>
+        <v>5994</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19883</v>
+        <v>20136</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01954329601315975</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01075670721836804</v>
+        <v>0.01019717560696223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03382805753057298</v>
+        <v>0.03425844352196174</v>
       </c>
     </row>
     <row r="13">
@@ -9738,19 +9738,19 @@
         <v>33028</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21449</v>
+        <v>22586</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45281</v>
+        <v>47772</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1042052412345897</v>
+        <v>0.1042052412345896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06767412902532496</v>
+        <v>0.07125935050810261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1428646757365293</v>
+        <v>0.1507238065094687</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -9759,19 +9759,19 @@
         <v>16520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11394</v>
+        <v>10815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24372</v>
+        <v>24133</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06099516840627916</v>
+        <v>0.06099516840627919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04207105860984621</v>
+        <v>0.03993076892076067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08998998960092733</v>
+        <v>0.08910464968143815</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -9780,19 +9780,19 @@
         <v>49547</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36826</v>
+        <v>36350</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64096</v>
+        <v>64215</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08429520669322443</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06265340838993277</v>
+        <v>0.06184313859210181</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1090476495688788</v>
+        <v>0.1092490788184663</v>
       </c>
     </row>
     <row r="14">
@@ -9809,19 +9809,19 @@
         <v>263320</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>247480</v>
+        <v>247958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>277423</v>
+        <v>276850</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8308003031956943</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.780822890013756</v>
+        <v>0.7823306318398867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8752943761141888</v>
+        <v>0.87348843542599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -9830,19 +9830,19 @@
         <v>243012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>234115</v>
+        <v>233516</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250219</v>
+        <v>250646</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8972733503772478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8644232733996908</v>
+        <v>0.8622120911419996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9238827544821339</v>
+        <v>0.9254585891495539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>543</v>
@@ -9851,19 +9851,19 @@
         <v>506332</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>488319</v>
+        <v>488168</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>522660</v>
+        <v>520781</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8614292880324752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8307838096172728</v>
+        <v>0.8305264097275044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8892086301518096</v>
+        <v>0.8860124008157332</v>
       </c>
     </row>
     <row r="15">
@@ -9955,19 +9955,19 @@
         <v>6281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2277</v>
+        <v>2211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13513</v>
+        <v>13067</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02329706163159233</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008444355096901491</v>
+        <v>0.008200372299261635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05012300051151376</v>
+        <v>0.04846955869994694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -9989,19 +9989,19 @@
         <v>6281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2848</v>
+        <v>2187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13707</v>
+        <v>12909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01787941695111305</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008107940600040034</v>
+        <v>0.006225451378711428</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03901960340075662</v>
+        <v>0.03674801031664129</v>
       </c>
     </row>
     <row r="17">
@@ -10018,19 +10018,19 @@
         <v>4949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1131</v>
+        <v>1809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11222</v>
+        <v>11091</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01835799035146312</v>
+        <v>0.01835799035146313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004195216245087008</v>
+        <v>0.006710736379068534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04162364633485102</v>
+        <v>0.04113977477624976</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5255</v>
+        <v>5720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02021532624742177</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06432502824743244</v>
+        <v>0.07001938512359461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -10060,19 +10060,19 @@
         <v>6601</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2792</v>
+        <v>2496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13999</v>
+        <v>12724</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01878990687792147</v>
+        <v>0.01878990687792148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007949232023309976</v>
+        <v>0.007104446914579823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03985164507989749</v>
+        <v>0.03621970276053638</v>
       </c>
     </row>
     <row r="18">
@@ -10089,19 +10089,19 @@
         <v>15598</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9345</v>
+        <v>8795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24156</v>
+        <v>24332</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05785655217286636</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03466293813180149</v>
+        <v>0.03262239043283372</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08959833236993114</v>
+        <v>0.09025176141042035</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4184</v>
+        <v>4276</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01427527982434681</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0512219745646667</v>
+        <v>0.05234549986006685</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -10131,19 +10131,19 @@
         <v>16764</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9742</v>
+        <v>10000</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25859</v>
+        <v>27883</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04772189004074159</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02773265462794341</v>
+        <v>0.02846698958407787</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07361077053810457</v>
+        <v>0.07937443357905462</v>
       </c>
     </row>
     <row r="19">
@@ -10160,19 +10160,19 @@
         <v>41715</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31977</v>
+        <v>31181</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55522</v>
+        <v>55586</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1547288027665999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1186082599129436</v>
+        <v>0.115658017958934</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2059430081792635</v>
+        <v>0.2061787374002148</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -10181,19 +10181,19 @@
         <v>13606</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8927</v>
+        <v>8550</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20523</v>
+        <v>20221</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1665507950517864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1092747731865412</v>
+        <v>0.1046622373965784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2512255763516184</v>
+        <v>0.2475285495014287</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -10202,19 +10202,19 @@
         <v>55320</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43220</v>
+        <v>43095</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70092</v>
+        <v>71765</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1574779629237613</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1230308653527189</v>
+        <v>0.1226765293521995</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1995266747889058</v>
+        <v>0.2042898569015525</v>
       </c>
     </row>
     <row r="20">
@@ -10231,19 +10231,19 @@
         <v>201056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>184960</v>
+        <v>185618</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214854</v>
+        <v>214591</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7457595930774783</v>
+        <v>0.7457595930774785</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6860552012671985</v>
+        <v>0.6884965233008237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7969398426983635</v>
+        <v>0.7959640204659696</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -10252,19 +10252,19 @@
         <v>65268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57507</v>
+        <v>58200</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70623</v>
+        <v>70975</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7989585988764449</v>
+        <v>0.798958598876445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7039555386647983</v>
+        <v>0.7124398905321428</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8645134001876987</v>
+        <v>0.8688276051595593</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>261</v>
@@ -10273,19 +10273,19 @@
         <v>266324</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>250557</v>
+        <v>250236</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>282967</v>
+        <v>283184</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7581308232064625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7132485455719278</v>
+        <v>0.7123341733924053</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8055088052494656</v>
+        <v>0.8061251419301469</v>
       </c>
     </row>
     <row r="21">
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7943</v>
+        <v>8239</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00372351157877597</v>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01293826147847039</v>
+        <v>0.01342134733938138</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4795</v>
+        <v>5065</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001976804709719959</v>
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01010176595303153</v>
+        <v>0.01067111784054509</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -10419,19 +10419,19 @@
         <v>3224</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8738</v>
+        <v>9179</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.002961854393306099</v>
+        <v>0.0029618543933061</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0008548159186987568</v>
+        <v>0.0008583793968372804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008026847984089374</v>
+        <v>0.00843248336397253</v>
       </c>
     </row>
     <row r="23">
@@ -10448,19 +10448,19 @@
         <v>5089</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1315</v>
+        <v>1283</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13143</v>
+        <v>13217</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008289498973028483</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00214250777907921</v>
+        <v>0.00208942037119226</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02140929356411378</v>
+        <v>0.02152895147383102</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -10472,16 +10472,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2490</v>
+        <v>2222</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.0009287622202067257</v>
+        <v>0.0009287622202067258</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.005245034677029149</v>
+        <v>0.004680238743343949</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -10490,19 +10490,19 @@
         <v>5530</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1708</v>
+        <v>1735</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13131</v>
+        <v>12792</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005079825880502807</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001569047929446584</v>
+        <v>0.001593465526466164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01206226782537531</v>
+        <v>0.01175093656117755</v>
       </c>
     </row>
     <row r="24">
@@ -10519,19 +10519,19 @@
         <v>6118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1901</v>
+        <v>2345</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14313</v>
+        <v>13986</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009965750672381007</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003095946214900701</v>
+        <v>0.003820258898779831</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02331475472137868</v>
+        <v>0.02278145010057206</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -10540,19 +10540,19 @@
         <v>2628</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>753</v>
+        <v>802</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6868</v>
+        <v>6150</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.005536117985577925</v>
+        <v>0.005536117985577926</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001585520380655448</v>
+        <v>0.001690459101851029</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01446900503770124</v>
+        <v>0.01295698303497921</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -10561,19 +10561,19 @@
         <v>8746</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4290</v>
+        <v>4161</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16646</v>
+        <v>18343</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.008034194997719273</v>
+        <v>0.008034194997719271</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003940611648749835</v>
+        <v>0.003822384720520099</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01529176326808499</v>
+        <v>0.01685053395217128</v>
       </c>
     </row>
     <row r="25">
@@ -10590,19 +10590,19 @@
         <v>49712</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35496</v>
+        <v>36486</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68004</v>
+        <v>67969</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0809767746522605</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05782106711209541</v>
+        <v>0.05943394297115846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1107743479141734</v>
+        <v>0.1107167827099498</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -10611,19 +10611,19 @@
         <v>25016</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17491</v>
+        <v>17677</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34899</v>
+        <v>34862</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05270100287513549</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03684925065323709</v>
+        <v>0.03724073206218414</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07352108180252083</v>
+        <v>0.07344373446814771</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -10632,19 +10632,19 @@
         <v>74728</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58278</v>
+        <v>57403</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92442</v>
+        <v>94591</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06864703282191402</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05353612104783267</v>
+        <v>0.05273199433738966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08491987027120171</v>
+        <v>0.08689426306264772</v>
       </c>
     </row>
     <row r="26">
@@ -10661,19 +10661,19 @@
         <v>550695</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>530526</v>
+        <v>531105</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>565338</v>
+        <v>566196</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8970444641235541</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.86419052612405</v>
+        <v>0.865134456611794</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9208974100162907</v>
+        <v>0.9222950599251801</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>586</v>
@@ -10682,19 +10682,19 @@
         <v>445654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>435511</v>
+        <v>435176</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>453554</v>
+        <v>453446</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9388573122093599</v>
+        <v>0.93885731220936</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9174901911386739</v>
+        <v>0.9167840151374474</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9555009588179465</v>
+        <v>0.9552730287991911</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1058</v>
@@ -10703,19 +10703,19 @@
         <v>996349</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>976344</v>
+        <v>975388</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1014125</v>
+        <v>1015762</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9152770919065578</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.896900407684089</v>
+        <v>0.8960222296810156</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9316071883905991</v>
+        <v>0.93311076787943</v>
       </c>
     </row>
     <row r="27">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7069</v>
+        <v>6552</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006704813480908512</v>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02308990126437509</v>
+        <v>0.02139942940313041</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -10831,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2920</v>
+        <v>3144</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.001891091149104617</v>
+        <v>0.001891091149104616</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009466593771205213</v>
+        <v>0.01019343610640529</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -10849,19 +10849,19 @@
         <v>2636</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7606</v>
+        <v>8050</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.004289079614606289</v>
+        <v>0.00428907961460629</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0009683772955779421</v>
+        <v>0.000948069412136432</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01237555427611913</v>
+        <v>0.01309735407093827</v>
       </c>
     </row>
     <row r="29">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7258</v>
+        <v>7282</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004686612808522242</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02370718592142496</v>
+        <v>0.0237854773105644</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -10902,16 +10902,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4770</v>
+        <v>4750</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.004373461439393488</v>
+        <v>0.004373461439393487</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01546460339161823</v>
+        <v>0.01539891792022565</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -10920,19 +10920,19 @@
         <v>2784</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8597</v>
+        <v>7799</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004529459920270843</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001054330091693393</v>
+        <v>0.00104821663839061</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01398736649035135</v>
+        <v>0.0126903153866803</v>
       </c>
     </row>
     <row r="30">
@@ -10949,19 +10949,19 @@
         <v>7863</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2299</v>
+        <v>2348</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28184</v>
+        <v>21990</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02568263272860637</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007510557432289329</v>
+        <v>0.007669307322694299</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09205397751017064</v>
+        <v>0.07182351432677969</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3496</v>
+        <v>4704</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002303534805687776</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01133540019110917</v>
+        <v>0.0152504997881359</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -10991,19 +10991,19 @@
         <v>8574</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2773</v>
+        <v>2290</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>25086</v>
+        <v>24361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01394999118365338</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004512257747287174</v>
+        <v>0.003726393758593934</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04081731678596969</v>
+        <v>0.03963777508643595</v>
       </c>
     </row>
     <row r="31">
@@ -11020,19 +11020,19 @@
         <v>4245</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10054</v>
+        <v>9854</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01386338004600733</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003743193337490744</v>
+        <v>0.0036934884034775</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03283976349532757</v>
+        <v>0.03218353319346352</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -11041,19 +11041,19 @@
         <v>2281</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5419</v>
+        <v>5753</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.007395066208556276</v>
+        <v>0.007395066208556274</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00208378179925361</v>
+        <v>0.002070203957841741</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0175705963100699</v>
+        <v>0.01865379402082906</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -11062,19 +11062,19 @@
         <v>6525</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2630</v>
+        <v>2945</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13350</v>
+        <v>13382</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01061730066752639</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004278945524778622</v>
+        <v>0.004791497832108348</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02172118726007587</v>
+        <v>0.02177310659531909</v>
       </c>
     </row>
     <row r="32">
@@ -11091,19 +11091,19 @@
         <v>290572</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>273592</v>
+        <v>276104</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>298342</v>
+        <v>298395</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9490625609359555</v>
+        <v>0.9490625609359556</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8936050990678318</v>
+        <v>0.9018074218013886</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9744425461445091</v>
+        <v>0.9746166201775125</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>415</v>
@@ -11112,19 +11112,19 @@
         <v>303508</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>298983</v>
+        <v>299243</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>306092</v>
+        <v>306198</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.984036846397258</v>
+        <v>0.9840368463972577</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.969363880485158</v>
+        <v>0.9702060635729329</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9924146841272531</v>
+        <v>0.9927584164392852</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>655</v>
@@ -11133,19 +11133,19 @@
         <v>594080</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>576905</v>
+        <v>578455</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>601925</v>
+        <v>601582</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.966614168613943</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9386689821433198</v>
+        <v>0.9411903354661565</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9793782555028425</v>
+        <v>0.9788195866680827</v>
       </c>
     </row>
     <row r="33">
@@ -11237,19 +11237,19 @@
         <v>40736</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>29725</v>
+        <v>29470</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>57264</v>
+        <v>57086</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.02171336967775666</v>
+        <v>0.02171336967775665</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01584394265670428</v>
+        <v>0.01570832413642593</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03052285548682313</v>
+        <v>0.03042818230506486</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -11258,19 +11258,19 @@
         <v>10007</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5217</v>
+        <v>5448</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16246</v>
+        <v>16524</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.006826147019305547</v>
+        <v>0.006826147019305545</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003558632207679315</v>
+        <v>0.003716033181798244</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01108196021917469</v>
+        <v>0.01127173486565581</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -11279,19 +11279,19 @@
         <v>50743</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>37870</v>
+        <v>37814</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>66741</v>
+        <v>67654</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01518325700360896</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01133132148484095</v>
+        <v>0.01131449056734895</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01997011487669973</v>
+        <v>0.02024325883291116</v>
       </c>
     </row>
     <row r="35">
@@ -11308,19 +11308,19 @@
         <v>30860</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19622</v>
+        <v>20305</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>45141</v>
+        <v>44099</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01644912509284632</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01045890143069012</v>
+        <v>0.01082281906791037</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02406124649484575</v>
+        <v>0.0235056455775061</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>24</v>
@@ -11329,19 +11329,19 @@
         <v>17646</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11470</v>
+        <v>11284</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26522</v>
+        <v>25376</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01203713685328612</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007824122410411135</v>
+        <v>0.007697557049741147</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01809175208567556</v>
+        <v>0.01731036091673355</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>52</v>
@@ -11350,19 +11350,19 @@
         <v>48506</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>36406</v>
+        <v>36071</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>62969</v>
+        <v>64304</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01451385610531711</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01089333171172706</v>
+        <v>0.01079318145984658</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01884138474614876</v>
+        <v>0.01924088408488969</v>
       </c>
     </row>
     <row r="36">
@@ -11379,19 +11379,19 @@
         <v>61935</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>47758</v>
+        <v>46853</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>83609</v>
+        <v>82425</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03301267179016174</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02545598873765089</v>
+        <v>0.02497344092766774</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04456558238566129</v>
+        <v>0.04393441388301067</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>30</v>
@@ -11400,19 +11400,19 @@
         <v>20851</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14129</v>
+        <v>14613</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29249</v>
+        <v>29434</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01422325564192586</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009638432186693784</v>
+        <v>0.009968386919744616</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01995207374892197</v>
+        <v>0.02007861127939625</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>84</v>
@@ -11421,19 +11421,19 @@
         <v>82786</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>66144</v>
+        <v>64576</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>106197</v>
+        <v>106311</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02477090585810063</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01979133422346444</v>
+        <v>0.0193223226634981</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03177597258253475</v>
+        <v>0.0318101985587757</v>
       </c>
     </row>
     <row r="37">
@@ -11450,19 +11450,19 @@
         <v>190648</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>165409</v>
+        <v>164477</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>221799</v>
+        <v>224132</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1016194965080188</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08816641491240343</v>
+        <v>0.08766956180342844</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1182236321856133</v>
+        <v>0.1194669043213346</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>134</v>
@@ -11471,19 +11471,19 @@
         <v>93254</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>78370</v>
+        <v>79381</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>109747</v>
+        <v>109579</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06361289504076073</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05346024096422416</v>
+        <v>0.0541497866741985</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07486393579503249</v>
+        <v>0.07474901161778091</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>309</v>
@@ -11492,19 +11492,19 @@
         <v>283902</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>252807</v>
+        <v>252562</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>316293</v>
+        <v>318853</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08494832851136547</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07564427346417567</v>
+        <v>0.07557092601427316</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09464026682821218</v>
+        <v>0.09540622324947158</v>
       </c>
     </row>
     <row r="38">
@@ -11521,19 +11521,19 @@
         <v>1551918</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1512455</v>
+        <v>1512156</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1583243</v>
+        <v>1586406</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8272053369312165</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8061706696448324</v>
+        <v>0.8060111098223344</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8439022102144866</v>
+        <v>0.84558794259595</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1758</v>
@@ -11542,19 +11542,19 @@
         <v>1324196</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1304521</v>
+        <v>1304802</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1342702</v>
+        <v>1343602</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9033005654447219</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8898788150250493</v>
+        <v>0.8900705521433214</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9159240071688757</v>
+        <v>0.916537943793565</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3078</v>
@@ -11563,19 +11563,19 @@
         <v>2876115</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2835133</v>
+        <v>2831753</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2919260</v>
+        <v>2917687</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8605836525216078</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8483209999637584</v>
+        <v>0.8473095574160951</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.87349332618978</v>
+        <v>0.8730225573862901</v>
       </c>
     </row>
     <row r="39">
